--- a/biology/Médecine/Simon_Lindekens/Simon_Lindekens.xlsx
+++ b/biology/Médecine/Simon_Lindekens/Simon_Lindekens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Charles Jean Lindekens, né le 18 décembre 1871 et décédé le 7 novembre 1937 fut un homme politique catholique nationaliste flamand.
 Lindekens fut docteur en médecine (Université catholique de Louvain, 1895). Il siégea dans le conseil du Katholieke Vlaamse Bond van Limburg, prémices du nationalisme flamand au Limbourg.
@@ -513,7 +525,9 @@
           <t>Généalogie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il épousa Catho Buckinx, dont il eut deux enfants, Magdalena (1918-) et Gustaaf (1916-).
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Indrukken bij een tentoonstelling van Wallaert, 1927.
 Verzen van toen en thans, Standaard Boekhandel Bruxelles, 1928.
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bio sur ODIS
  Portail de la politique belge   Portail de la Région flamande   Portail de la médecine                   </t>
